--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.582962</v>
+        <v>0.703179</v>
       </c>
       <c r="H2">
-        <v>103.748886</v>
+        <v>2.109537</v>
       </c>
       <c r="I2">
-        <v>0.8305266248561333</v>
+        <v>0.09061565978662672</v>
       </c>
       <c r="J2">
-        <v>0.8305266248561333</v>
+        <v>0.09061565978662675</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.324764666666667</v>
+        <v>0.668273</v>
       </c>
       <c r="N2">
-        <v>6.974294</v>
+        <v>2.004819</v>
       </c>
       <c r="O2">
-        <v>0.04473923998638302</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="P2">
-        <v>0.04473923998638301</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="Q2">
-        <v>80.39724812627601</v>
+        <v>0.469915539867</v>
       </c>
       <c r="R2">
-        <v>723.575233136484</v>
+        <v>4.229239858803</v>
       </c>
       <c r="S2">
-        <v>0.03715712998451925</v>
+        <v>0.001203751787485533</v>
       </c>
       <c r="T2">
-        <v>0.03715712998451924</v>
+        <v>0.001203751787485533</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.582962</v>
+        <v>0.703179</v>
       </c>
       <c r="H3">
-        <v>103.748886</v>
+        <v>2.109537</v>
       </c>
       <c r="I3">
-        <v>0.8305266248561333</v>
+        <v>0.09061565978662672</v>
       </c>
       <c r="J3">
-        <v>0.8305266248561333</v>
+        <v>0.09061565978662675</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>57.824759</v>
       </c>
       <c r="O3">
-        <v>0.3709387315842666</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="P3">
-        <v>0.3709387315842665</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="Q3">
-        <v>666.5838143853859</v>
+        <v>13.553718736287</v>
       </c>
       <c r="R3">
-        <v>5999.254329468474</v>
+        <v>121.983468626583</v>
       </c>
       <c r="S3">
-        <v>0.3080744927710961</v>
+        <v>0.03471967145521375</v>
       </c>
       <c r="T3">
-        <v>0.3080744927710961</v>
+        <v>0.03471967145521376</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.582962</v>
+        <v>0.703179</v>
       </c>
       <c r="H4">
-        <v>103.748886</v>
+        <v>2.109537</v>
       </c>
       <c r="I4">
-        <v>0.8305266248561333</v>
+        <v>0.09061565978662672</v>
       </c>
       <c r="J4">
-        <v>0.8305266248561333</v>
+        <v>0.09061565978662675</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.36285833333333</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N4">
-        <v>91.08857499999999</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O4">
-        <v>0.5843220284293504</v>
+        <v>0.6035627470208969</v>
       </c>
       <c r="P4">
-        <v>0.5843220284293503</v>
+        <v>0.6035627470208967</v>
       </c>
       <c r="Q4">
-        <v>1050.03757595305</v>
+        <v>21.350524359975</v>
       </c>
       <c r="R4">
-        <v>9450.338183577449</v>
+        <v>192.154719239775</v>
       </c>
       <c r="S4">
-        <v>0.485295002100518</v>
+        <v>0.05469223654392744</v>
       </c>
       <c r="T4">
-        <v>0.4852950021005179</v>
+        <v>0.05469223654392745</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>14.012543</v>
       </c>
       <c r="I5">
-        <v>0.1121726747354322</v>
+        <v>0.6019120921953386</v>
       </c>
       <c r="J5">
-        <v>0.1121726747354322</v>
+        <v>0.6019120921953387</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.324764666666667</v>
+        <v>0.668273</v>
       </c>
       <c r="N5">
-        <v>6.974294</v>
+        <v>2.004819</v>
       </c>
       <c r="O5">
-        <v>0.04473923998638302</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="P5">
-        <v>0.04473923998638301</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="Q5">
-        <v>10.85862161884911</v>
+        <v>3.121401382746333</v>
       </c>
       <c r="R5">
-        <v>97.72759456964201</v>
+        <v>28.092612444717</v>
       </c>
       <c r="S5">
-        <v>0.005018520214902985</v>
+        <v>0.007995888995295131</v>
       </c>
       <c r="T5">
-        <v>0.005018520214902985</v>
+        <v>0.007995888995295129</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>14.012543</v>
       </c>
       <c r="I6">
-        <v>0.1121726747354322</v>
+        <v>0.6019120921953386</v>
       </c>
       <c r="J6">
-        <v>0.1121726747354322</v>
+        <v>0.6019120921953387</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>57.824759</v>
       </c>
       <c r="O6">
-        <v>0.3709387315842666</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="P6">
-        <v>0.3709387315842665</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="Q6">
         <v>90.03021355023745</v>
@@ -818,10 +818,10 @@
         <v>810.2719219521371</v>
       </c>
       <c r="S6">
-        <v>0.04160918968477573</v>
+        <v>0.2306244873695296</v>
       </c>
       <c r="T6">
-        <v>0.04160918968477573</v>
+        <v>0.2306244873695296</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>14.012543</v>
       </c>
       <c r="I7">
-        <v>0.1121726747354322</v>
+        <v>0.6019120921953386</v>
       </c>
       <c r="J7">
-        <v>0.1121726747354322</v>
+        <v>0.6019120921953387</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.36285833333333</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N7">
-        <v>91.08857499999999</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O7">
-        <v>0.5843220284293504</v>
+        <v>0.6035627470208969</v>
       </c>
       <c r="P7">
-        <v>0.5843220284293503</v>
+        <v>0.6035627470208967</v>
       </c>
       <c r="Q7">
         <v>141.8202859995806</v>
@@ -880,10 +880,10 @@
         <v>1276.382573996225</v>
       </c>
       <c r="S7">
-        <v>0.06554496483575349</v>
+        <v>0.3632917158305139</v>
       </c>
       <c r="T7">
-        <v>0.06554496483575349</v>
+        <v>0.3632917158305139</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>7.157969</v>
       </c>
       <c r="I8">
-        <v>0.05730070040843456</v>
+        <v>0.3074722480180346</v>
       </c>
       <c r="J8">
-        <v>0.05730070040843457</v>
+        <v>0.3074722480180347</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.324764666666667</v>
+        <v>0.668273</v>
       </c>
       <c r="N8">
-        <v>6.974294</v>
+        <v>2.004819</v>
       </c>
       <c r="O8">
-        <v>0.04473923998638302</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="P8">
-        <v>0.04473923998638301</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="Q8">
-        <v>5.546864472098445</v>
+        <v>1.594492472512333</v>
       </c>
       <c r="R8">
-        <v>49.921780248886</v>
+        <v>14.350432252611</v>
       </c>
       <c r="S8">
-        <v>0.002563589786960789</v>
+        <v>0.004084506684886796</v>
       </c>
       <c r="T8">
-        <v>0.002563589786960789</v>
+        <v>0.004084506684886796</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>7.157969</v>
       </c>
       <c r="I9">
-        <v>0.05730070040843456</v>
+        <v>0.3074722480180346</v>
       </c>
       <c r="J9">
-        <v>0.05730070040843457</v>
+        <v>0.3074722480180347</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>57.824759</v>
       </c>
       <c r="O9">
-        <v>0.3709387315842666</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="P9">
-        <v>0.3709387315842665</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="Q9">
         <v>45.98975915049677</v>
@@ -1004,10 +1004,10 @@
         <v>413.907832354471</v>
       </c>
       <c r="S9">
-        <v>0.02125504912839478</v>
+        <v>0.1178089466866924</v>
       </c>
       <c r="T9">
-        <v>0.02125504912839478</v>
+        <v>0.1178089466866924</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>7.157969</v>
       </c>
       <c r="I10">
-        <v>0.05730070040843456</v>
+        <v>0.3074722480180346</v>
       </c>
       <c r="J10">
-        <v>0.05730070040843457</v>
+        <v>0.3074722480180347</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.36285833333333</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N10">
-        <v>91.08857499999999</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O10">
-        <v>0.5843220284293504</v>
+        <v>0.6035627470208969</v>
       </c>
       <c r="P10">
-        <v>0.5843220284293503</v>
+        <v>0.6035627470208967</v>
       </c>
       <c r="Q10">
-        <v>72.44546623379722</v>
+        <v>72.44546623379723</v>
       </c>
       <c r="R10">
-        <v>652.0091961041749</v>
+        <v>652.009196104175</v>
       </c>
       <c r="S10">
-        <v>0.03348206149307899</v>
+        <v>0.1855787946464555</v>
       </c>
       <c r="T10">
-        <v>0.03348206149307899</v>
+        <v>0.1855787946464555</v>
       </c>
     </row>
   </sheetData>
